--- a/AAII_Financials/Yearly/CFAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CFAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>CFAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>12100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>12500</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>230300</v>
+        <v>218300</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
